--- a/public/Book1.xlsx
+++ b/public/Book1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zane2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Typescript\fake-trap\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46989D9-0581-4451-B566-12C22A5D6142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B286BC42-A7BC-4EC8-A76C-567C737F05AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="4815" windowWidth="21600" windowHeight="11295" xr2:uid="{68A8FC0D-FC19-4E22-94B1-584C5F3416C9}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{68A8FC0D-FC19-4E22-94B1-584C5F3416C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>id_quiz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>question_text</t>
   </si>
@@ -435,14 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0770BC4-CBF8-4A39-94AC-28F080E6C18A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
@@ -450,12 +448,12 @@
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -466,27 +464,21 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/public/Book1.xlsx
+++ b/public/Book1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Typescript\fake-trap\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B286BC42-A7BC-4EC8-A76C-567C737F05AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7ED93E-4EC0-4E83-BFDF-3E1E5E4C3582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{68A8FC0D-FC19-4E22-94B1-584C5F3416C9}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68A8FC0D-FC19-4E22-94B1-584C5F3416C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Soal Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="190">
   <si>
     <t>question_text</t>
   </si>
   <si>
-    <t>What is 2+2?</t>
-  </si>
-  <si>
     <t>answer_text1</t>
   </si>
   <si>
@@ -54,13 +51,568 @@
   </si>
   <si>
     <t>is_correct2</t>
+  </si>
+  <si>
+    <t>answer_text3</t>
+  </si>
+  <si>
+    <t>is_correct3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suatu institusi yang menawarkan produk financial seperti mortage, pension, asuransi atau obligasi adalah </t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Perusahaan jasa Keuangan</t>
+  </si>
+  <si>
+    <t>Asuransi</t>
+  </si>
+  <si>
+    <t>answer_text4</t>
+  </si>
+  <si>
+    <t>Dana pensiun</t>
+  </si>
+  <si>
+    <t>is_correct4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kejadian yang menyebabkan potensi kerugian disebut </t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Risk Event</t>
+  </si>
+  <si>
+    <t>Risk Loss</t>
+  </si>
+  <si>
+    <t>Potential Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerugian financial maupun non financial yang dialami sebagai konsekuensi langsung maupun tidak langsung dari suatu risk event disebut </t>
+  </si>
+  <si>
+    <t>Regulasi yang ketat diberlakukan pada bank terutama ditujukan untuk :</t>
+  </si>
+  <si>
+    <t>Melindungi nasabah</t>
+  </si>
+  <si>
+    <t>Melindungi pemegang saham</t>
+  </si>
+  <si>
+    <t>Melindungi ekonomi secara keseluruhan</t>
+  </si>
+  <si>
+    <t>Melindungi pengurus bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kegagalan suatu bank yang dapat mengakibatkan kehancuran ekonomi secara keseluruhan disebut </t>
+  </si>
+  <si>
+    <t>System risk</t>
+  </si>
+  <si>
+    <t>Systemic Risk</t>
+  </si>
+  <si>
+    <t>Credit Risk</t>
+  </si>
+  <si>
+    <t>Country risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank perlu memiliki modal yang cukup untuk mengcover risiko-risiko yang dihadapi disebut </t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Capital ratio</t>
+  </si>
+  <si>
+    <t>Capital Adeaquacy</t>
+  </si>
+  <si>
+    <t>Capital charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amandemen Basel I yang memasukkan factor risiko pasar dalam perhitungan kecukupan modal diterbitkan tahun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setelah melalui serangkaian konsultasi dan debat Basel II diterbitkan tahun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risiko kerugian akibat penurunan nilai investasi berkaitan yang terjadi sebagai kosekuensi atas struktur bisnis bank seperti menerima deposito dan menyalurkan kredit disebut </t>
+  </si>
+  <si>
+    <t>Market risk</t>
+  </si>
+  <si>
+    <t>Traded market risk</t>
+  </si>
+  <si>
+    <t>Interest rate risk in banking book</t>
+  </si>
+  <si>
+    <t>Price risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang bukan merupakan teknik dan kebijakan berikut lazim digunakan untuk mitigasi risiko kredit adalah </t>
+  </si>
+  <si>
+    <t>Sekuritisasi</t>
+  </si>
+  <si>
+    <t>Kolateral</t>
+  </si>
+  <si>
+    <t>Penjualan Aset</t>
+  </si>
+  <si>
+    <t>Bank A akan membeli obligasi berjangka waktu 5 tahun. Strategi pendanaan yang layak dipilih oleh Bank A bila diperkirakan suku bunga pasar akan meningkat dimasa mendatang adalah :</t>
+  </si>
+  <si>
+    <t>Matched funding</t>
+  </si>
+  <si>
+    <t>Long funding</t>
+  </si>
+  <si>
+    <t>Short funding</t>
+  </si>
+  <si>
+    <t>Neutral funding</t>
+  </si>
+  <si>
+    <t>Manajemen portfolio kredit</t>
+  </si>
+  <si>
+    <t>Teknik yang digunakan oleh lemabga pemeringkat seperti S &amp; P dan Mody's untuk menetapkan peringkat risiko kredit suatu obligasi adalah</t>
+  </si>
+  <si>
+    <t>Loan portfolio management</t>
+  </si>
+  <si>
+    <t>Grading model</t>
+  </si>
+  <si>
+    <t>Recovery Management</t>
+  </si>
+  <si>
+    <t>Securitization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teknik yang digunakan bank agar portfolio kredit bank tidak terkonsentrasi pada satu industri tertentu atau pada satu daerah tertentu disebut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teknik yang dapat digunakan untuk melindungi bank dari gejolak ekonomi dengan cara mempaket dan menjual sebagian portofolio kredit mereka kepada investor sebagai surat berharga (sekuritas) adalah </t>
+  </si>
+  <si>
+    <t>Estimasi kerugian yang akan diderita bank akibat adanya kejadian default disebut</t>
+  </si>
+  <si>
+    <t>Probabiloty of default</t>
+  </si>
+  <si>
+    <t>Exposure at default</t>
+  </si>
+  <si>
+    <t>Loss given default</t>
+  </si>
+  <si>
+    <t>Event of default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesuai didefinisi Basel II, yang termasuk dalam kategori operational risk adalah </t>
+  </si>
+  <si>
+    <t>Risiko hukum</t>
+  </si>
+  <si>
+    <t>Risiko bisnis</t>
+  </si>
+  <si>
+    <t>Risiko reputasi</t>
+  </si>
+  <si>
+    <t>Risiko strategic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risiko yang berkaitan dengan posisi kompetitif bank dan dalam menghasilkan keuntungan ditengah kondisi pasar yang senantiasa berubah disebut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang bukan termasuk jenis resiko yang dipersyaratkan dalam Basel II perlu disediakan provisi adalah </t>
+  </si>
+  <si>
+    <t>Business risk</t>
+  </si>
+  <si>
+    <t>Strategic risk</t>
+  </si>
+  <si>
+    <t>Reputational risk</t>
+  </si>
+  <si>
+    <t>Legal risk</t>
+  </si>
+  <si>
+    <t>Risiko yang paling berpengaruh terhadap nasabah Bank seara harian adalah</t>
+  </si>
+  <si>
+    <t>Operational risk</t>
+  </si>
+  <si>
+    <t>Liquidity risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulasi tentang kewajiban penyediaan modal minimum bank umum dengan memperhitungkan pasar diterbitkan oleh Bank Indonesia pada tahun </t>
+  </si>
+  <si>
+    <t>Gearing didefinisikan sebagai</t>
+  </si>
+  <si>
+    <t>Ratio antara hutang dengan asset</t>
+  </si>
+  <si>
+    <t>Ratio antara hutang dengan modal</t>
+  </si>
+  <si>
+    <t>Ratio asset dengan modal</t>
+  </si>
+  <si>
+    <t>Ration antara modal dengan hutang</t>
+  </si>
+  <si>
+    <t>Highly leveraged</t>
+  </si>
+  <si>
+    <t>Illiquid</t>
+  </si>
+  <si>
+    <t>Insolvency</t>
+  </si>
+  <si>
+    <t>Bankruptcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terpelihara situasi dimana kemampuan institusi keuangan dan pasar dalam memobilisasi tabungan berjalan efisien, mampu memberikan likuiditas dan pengalokasian investasi yang tidak merusak disebut </t>
+  </si>
+  <si>
+    <t>Monetary stability</t>
+  </si>
+  <si>
+    <t>Economic stability</t>
+  </si>
+  <si>
+    <t>Financial stability</t>
+  </si>
+  <si>
+    <t>Capital stability</t>
+  </si>
+  <si>
+    <t>Kestabilan atas nilai uang (inflasi rendah dan stabil) disebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basel II lebih ditujukan kepada </t>
+  </si>
+  <si>
+    <t>Regulasi bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulasi Industri Jasa Keuangan </t>
+  </si>
+  <si>
+    <t>Regulasi Bank Sentral</t>
+  </si>
+  <si>
+    <t>Regulasi Ekonomi Internasional</t>
+  </si>
+  <si>
+    <t>Basel committee beranggotakan perwakilan Bank Sentral &amp; Pengawas Bank dari</t>
+  </si>
+  <si>
+    <t>10 Negara</t>
+  </si>
+  <si>
+    <t>11 Negara</t>
+  </si>
+  <si>
+    <t>12 Negara</t>
+  </si>
+  <si>
+    <t>13 Negara</t>
+  </si>
+  <si>
+    <t>Secara umum terdapat beberapa kategori kelas asset sesuai bobot risikonya (risk weight) bila mengacu pada Basel I</t>
+  </si>
+  <si>
+    <t>3 Kategori</t>
+  </si>
+  <si>
+    <t>4 Kategori</t>
+  </si>
+  <si>
+    <t>5 Kategori</t>
+  </si>
+  <si>
+    <t>6 Kategori</t>
+  </si>
+  <si>
+    <t>Sesuai Basel I, untuk menghitung Risk weighted asset transaksi yang tergolong dalam off B/S diigunakan konsep</t>
+  </si>
+  <si>
+    <t>Conversation factor</t>
+  </si>
+  <si>
+    <t>Credit risk equivalent</t>
+  </si>
+  <si>
+    <t>Current exposure method</t>
+  </si>
+  <si>
+    <t>Original exposure method</t>
+  </si>
+  <si>
+    <t>Dalam menghitung credit equivalent untuk transaksi derivative dapat digunakan metode</t>
+  </si>
+  <si>
+    <t>a dan b benar</t>
+  </si>
+  <si>
+    <t>Tidak ada jawaban yang benar</t>
+  </si>
+  <si>
+    <t>Untuk transaksi deriviative seperti swap pada saat terjadi counterparly default, bank akan menghadapi kerugian</t>
+  </si>
+  <si>
+    <t>Sebesar nilai penuh kontrak transaksi yang dilakukan</t>
+  </si>
+  <si>
+    <t>Sebesar credit equivalent dari kontrak transaksi yang dilakukan</t>
+  </si>
+  <si>
+    <t>Sebesar nilai pasar dari kontrak transaksi yang dilakukan</t>
+  </si>
+  <si>
+    <t>Sebesar conversation factor transaksi yang dilakukan</t>
+  </si>
+  <si>
+    <t>Bagi Bank yang memiliki trasaksi derivative di off balance sheet dengan posisi yang tidak besar untuk menghitung risikonya dapat digunakan metode</t>
+  </si>
+  <si>
+    <t>Current exposure mthod</t>
+  </si>
+  <si>
+    <t>Grid table approach</t>
+  </si>
+  <si>
+    <t>Look up table approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General market risk dibagi dalam 4 kategori untuk kebutuhan analisis, kategorinya adalah sebagai berikut, kecuali </t>
+  </si>
+  <si>
+    <t>Risiko posisi ekuitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value at risk (VaR) dapat didefinisikan sebagai </t>
+  </si>
+  <si>
+    <t>Estimasi maksimum potensi kerugian sutu portfolio dalam periode waktu yang telah terukur dalam keadaan uncertainty</t>
+  </si>
+  <si>
+    <t>Risiko nilai tukar</t>
+  </si>
+  <si>
+    <t>Risiko suku bunga</t>
+  </si>
+  <si>
+    <t>Risiko trading</t>
+  </si>
+  <si>
+    <t>Estimasi nilai maksimum potensi kerugian suatu portfolio dalam periode waktu tertentu dengan menggunakan high level confidence</t>
+  </si>
+  <si>
+    <t>Estimasi nilai maksimum potensi keuntungan suatu prtofolio dalam periode waktu tertentu dan dengan tingkat kepastian yang telah ditetapkan</t>
+  </si>
+  <si>
+    <t>Estimasi nilai maksimum potensi kerugian suatu portfolio dalam periode waktu tertntu dan dengan confidence level tertentu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diantara pernyataan berikut ini yang benar adalah </t>
+  </si>
+  <si>
+    <t>Dalam perhitungan modal sesuai Basel I, pemberian kredit kepada semua korporasi memiliki bobot risiko yang sama dan tidak melihat rating perusahaan yang bersangkutan</t>
+  </si>
+  <si>
+    <t>Dalam perhitungan modal sesuai Basel I, bobot risiko atas pemberian kredit kepada korporasi ditentukan oleh rating perusahaan yang bersangkutan</t>
+  </si>
+  <si>
+    <t>Sesuai Basel I, Bank yang menyalurkan kredit kepada perusahaan yang memiliki rating yang tinggi harus menyediakan modal yang sama dengan bank yang memberikan kredit kepada perusahaan yang memiliki rating yang rendah</t>
+  </si>
+  <si>
+    <t>a dan c benar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibandingkan Basel I, Basel II mengalami perbaikan yang signifikan terutama dalam hal berikut, kecuali </t>
+  </si>
+  <si>
+    <t>Meningkatnya jumlah modal yang harus dimiliki bank</t>
+  </si>
+  <si>
+    <t>Meningkatnya sensitivitas terhadap risiko</t>
+  </si>
+  <si>
+    <t>Diperkenankannya penggunaan internal model</t>
+  </si>
+  <si>
+    <t>Lebih fleksibel sesuai dengan kebutuhan bank yang berbeda-beda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilar 1 dari Basel II adalah </t>
+  </si>
+  <si>
+    <t>Market discipline</t>
+  </si>
+  <si>
+    <t>Minimum capital requirement</t>
+  </si>
+  <si>
+    <t>Supervisor review</t>
+  </si>
+  <si>
+    <t>Economic capital requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risiko suku bunga atas portfolio banking book pada Basel II masuk dalam pilar </t>
+  </si>
+  <si>
+    <t>Pilar 2</t>
+  </si>
+  <si>
+    <t>Pilar 3</t>
+  </si>
+  <si>
+    <t>Semua jawaban benar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risiko pasar atas portfolio trading book pada Basel II masuk dalam pilar </t>
+  </si>
+  <si>
+    <t>Pilar 1</t>
+  </si>
+  <si>
+    <t>Sesuai Basel II, dalam perhitungan kecukupan modal minimum untuk risiko operasional, bank diperkenankan menggunakan beberapa metode berikut, kecuali</t>
+  </si>
+  <si>
+    <t>Basic indicator approach</t>
+  </si>
+  <si>
+    <t>Internal ratings based approach</t>
+  </si>
+  <si>
+    <t>Standardised approach</t>
+  </si>
+  <si>
+    <t>Advance measurement approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit model yang diperkenankan dipakai untuk perhitungan kecukupan modal sesuai Pilar 1 Basel II adalah </t>
+  </si>
+  <si>
+    <t>Full portfolio model</t>
+  </si>
+  <si>
+    <t>Option based model</t>
+  </si>
+  <si>
+    <t>Credit grading model</t>
+  </si>
+  <si>
+    <t>Credit scoring model</t>
+  </si>
+  <si>
+    <t>Untuk menilai dampak implementasi atas suatu usulan regulasi terhadap permodalan bank, Basel Committee melakukan survey melalui</t>
+  </si>
+  <si>
+    <t>Consultative paper</t>
+  </si>
+  <si>
+    <t>Quantitative impact study</t>
+  </si>
+  <si>
+    <t>Qualitative impact study</t>
+  </si>
+  <si>
+    <t>Quantitative paper</t>
+  </si>
+  <si>
+    <t>QIS No. 3 diterbitkan pada tahun</t>
+  </si>
+  <si>
+    <t>Bila para analis yang bekerja pada Moody's dapat bekerja sama baiknya dengan para analis Standard &amp; Poor's (S&amp;P), maka rating obligasi BBB menurut S&amp;P dapat disetarakan dengan rating moody's</t>
+  </si>
+  <si>
+    <t>Ba 1</t>
+  </si>
+  <si>
+    <t>Baa</t>
+  </si>
+  <si>
+    <t>Bba</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank yang memilih IRB dapat menentukan sendiri jumlah peringkat yang akan digunakan tetapi minimal terdiri atas </t>
+  </si>
+  <si>
+    <t>6 tingkatan</t>
+  </si>
+  <si>
+    <t>8 tingkatan</t>
+  </si>
+  <si>
+    <t>10 tingkatan</t>
+  </si>
+  <si>
+    <t>12 tingkatan</t>
+  </si>
+  <si>
+    <t>Obligasi yang bukan termasuk dalam kategori investment grade adalah obligasi yang memiliki rating</t>
+  </si>
+  <si>
+    <t>A menurut Moody's</t>
+  </si>
+  <si>
+    <t>Baa menurut Moody's</t>
+  </si>
+  <si>
+    <t>BBB menurut S&amp;P</t>
+  </si>
+  <si>
+    <t>BB menurut S&amp;P</t>
+  </si>
+  <si>
+    <t>Minimum capital requirement untuk mengcover risiko kredit, risiko pasar dan risiko operasional sesuai Basel II sebesar</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +626,64 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,13 +691,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,53 +1107,1417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0770BC4-CBF8-4A39-94AC-28F080E6C18A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="96.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="b">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1998</v>
+      </c>
+      <c r="E8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1996</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2004</v>
+      </c>
+      <c r="I8" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1996</v>
+      </c>
+      <c r="E9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2004</v>
+      </c>
+      <c r="I9" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C22" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2003</v>
+      </c>
+      <c r="E22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2004</v>
+      </c>
+      <c r="G22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I22" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I39" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I40" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2001</v>
+      </c>
+      <c r="E44" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6">
+        <v>2003</v>
+      </c>
+      <c r="I44" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I47" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="C48" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="G48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="I48" s="10" t="b">
         <v>0</v>
       </c>
     </row>
